--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallAoe.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallAoe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CFC394-20F0-4866-BD71-C6DE818E3385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9830C66B-6ECE-4E67-9CA1-32DD8FD98F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,10 +228,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>3;0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>被召唤时的Action事件</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -273,6 +269,10 @@
   </si>
   <si>
     <t>aoeTargetCondition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;3;0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>25</v>
@@ -832,7 +832,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K1" s="18"/>
       <c r="L1" s="19"/>
@@ -871,13 +871,13 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>16</v>
@@ -932,7 +932,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="16"/>
@@ -1009,22 +1009,22 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>20</v>
@@ -1086,7 +1086,7 @@
         <v>36</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallAoe.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallAoe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9830C66B-6ECE-4E67-9CA1-32DD8FD98F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466A4AF6-5F9E-4211-8A57-0897DEDF38BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -201,79 +201,64 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>moveType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveTweenType</t>
-  </si>
-  <si>
     <t>飞行轨迹</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>飞行轨迹参数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StraightMoveTweenType</t>
+    <t>被召唤时的Action事件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AoeId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aoe_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionCondition1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionCondition2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件1(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件2(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围半径(米)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AoeTargetCondition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aoeTargetCondition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveTweenId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=MoveTweenCfgCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTween_Straight_3</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>被召唤时的Action事件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AoeId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>aoe_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actionCondition1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actionCondition2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件1(cond11&amp;cond12|cond21&amp;cond22)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件2(cond11&amp;cond12|cond21&amp;cond22)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>radius</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围半径(米)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AoeTargetCondition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>aoeTargetCondition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;3;0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -467,7 +452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -480,7 +465,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -785,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -804,10 +794,9 @@
     <col min="12" max="12" width="19.109375" customWidth="1"/>
     <col min="13" max="15" width="13.77734375" customWidth="1"/>
     <col min="16" max="16" width="19.109375" customWidth="1"/>
-    <col min="17" max="17" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -823,7 +812,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>25</v>
@@ -831,20 +820,20 @@
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="11" t="s">
+      <c r="J1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="19"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
       <c r="T1"/>
@@ -856,9 +845,8 @@
       <c r="Z1"/>
       <c r="AA1"/>
       <c r="AB1"/>
-      <c r="AC1"/>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -871,13 +859,13 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>16</v>
@@ -888,12 +876,8 @@
       <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="P2" s="9"/>
+      <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
@@ -905,9 +889,8 @@
       <c r="Z2"/>
       <c r="AA2"/>
       <c r="AB2"/>
-      <c r="AC2"/>
     </row>
-    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -931,20 +914,20 @@
       <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14" t="s">
+      <c r="J3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
@@ -956,9 +939,8 @@
       <c r="Z3"/>
       <c r="AA3"/>
       <c r="AB3"/>
-      <c r="AC3"/>
     </row>
-    <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -979,7 +961,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
@@ -991,9 +973,8 @@
       <c r="Z4"/>
       <c r="AA4"/>
       <c r="AB4"/>
-      <c r="AC4"/>
     </row>
-    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1009,22 +990,22 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>20</v>
@@ -1036,11 +1017,9 @@
         <v>22</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
@@ -1052,9 +1031,8 @@
       <c r="Z5"/>
       <c r="AA5"/>
       <c r="AB5"/>
-      <c r="AC5"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1083,55 +1061,36 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="Q14" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="J1:L1"/>
   </mergeCells>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallAoe.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallAoe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466A4AF6-5F9E-4211-8A57-0897DEDF38BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED09C4A4-B536-42C2-9F5E-1DABE05D63B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -257,8 +257,20 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MoveTween_Straight_3</t>
+    <t>MoveTween_Around_0</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择对象类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectObjectType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -775,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -789,14 +801,14 @@
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
     <col min="7" max="7" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.77734375" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" customWidth="1"/>
-    <col min="13" max="15" width="13.77734375" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" customWidth="1"/>
+    <col min="14" max="16" width="13.77734375" customWidth="1"/>
+    <col min="17" max="17" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -824,16 +836,16 @@
         <v>41</v>
       </c>
       <c r="K1" s="19"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="12" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="10" t="s">
+      <c r="O1" s="13"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
       <c r="T1"/>
@@ -845,8 +857,9 @@
       <c r="Z1"/>
       <c r="AA1"/>
       <c r="AB1"/>
+      <c r="AC1"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -862,22 +875,24 @@
         <v>38</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2"/>
+      <c r="Q2" s="9"/>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
@@ -889,8 +904,9 @@
       <c r="Z2"/>
       <c r="AA2"/>
       <c r="AB2"/>
+      <c r="AC2"/>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -918,16 +934,16 @@
         <v>40</v>
       </c>
       <c r="K3" s="16"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="15" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="11" t="s">
+      <c r="O3" s="16"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
@@ -939,8 +955,9 @@
       <c r="Z3"/>
       <c r="AA3"/>
       <c r="AB3"/>
+      <c r="AC3"/>
     </row>
-    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -961,7 +978,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="Q4"/>
+      <c r="Q4" s="4"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
@@ -973,8 +990,9 @@
       <c r="Z4"/>
       <c r="AA4"/>
       <c r="AB4"/>
+      <c r="AC4"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1002,24 +1020,26 @@
         <v>39</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
@@ -1031,8 +1051,9 @@
       <c r="Z5"/>
       <c r="AA5"/>
       <c r="AB5"/>
+      <c r="AC5"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1052,47 +1073,51 @@
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="J6" s="8">
-        <v>5</v>
-      </c>
-      <c r="M6" s="8"/>
+        <v>-1</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K7" s="6"/>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="L7" s="6"/>
-      <c r="P7" s="8"/>
+      <c r="M7" s="6"/>
+      <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K8" s="6"/>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="L8" s="6"/>
-      <c r="P8" s="8"/>
+      <c r="M8" s="6"/>
+      <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="K9" s="6"/>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="L9" s="6"/>
-      <c r="P9" s="8"/>
+      <c r="M9" s="6"/>
+      <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="P11" s="8"/>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallAoe.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallAoe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED09C4A4-B536-42C2-9F5E-1DABE05D63B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B427B8-1790-44BC-A607-E462E55948A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -265,11 +265,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Self</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectObjectType</t>
+    <t>$type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObjectUnitTypeSelf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectObjectUnitTypeBase</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -787,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -801,14 +813,15 @@
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
     <col min="7" max="7" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.77734375" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" customWidth="1"/>
-    <col min="14" max="16" width="13.77734375" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" customWidth="1"/>
+    <col min="8" max="10" width="13.77734375" customWidth="1"/>
+    <col min="11" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" customWidth="1"/>
+    <col min="15" max="17" width="13.77734375" customWidth="1"/>
+    <col min="18" max="18" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -837,16 +850,16 @@
       </c>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="12" t="s">
+      <c r="M1" s="19"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="10" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="R1"/>
       <c r="S1"/>
       <c r="T1"/>
       <c r="U1"/>
@@ -858,8 +871,9 @@
       <c r="AA1"/>
       <c r="AB1"/>
       <c r="AC1"/>
+      <c r="AD1"/>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -874,26 +888,26 @@
       <c r="J2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2"/>
+      <c r="R2" s="9"/>
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
@@ -905,46 +919,33 @@
       <c r="AA2"/>
       <c r="AB2"/>
       <c r="AC2"/>
+      <c r="AD2"/>
     </row>
-    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3"/>
+    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="9"/>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
@@ -956,30 +957,47 @@
       <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3"/>
+      <c r="AD3"/>
     </row>
-    <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4"/>
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
@@ -991,56 +1009,31 @@
       <c r="AA4"/>
       <c r="AB4"/>
       <c r="AC4"/>
+      <c r="AD4"/>
     </row>
-    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5"/>
+    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
@@ -1052,72 +1045,140 @@
       <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5"/>
+      <c r="AD5"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" ref="D6" si="0">B6&amp;"_"&amp;C6</f>
+      <c r="D7" t="str">
+        <f t="shared" ref="D7" si="0">B7&amp;"_"&amp;C7</f>
         <v>CallAoe_1</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8">
         <v>-1</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J7" s="8">
         <v>-1</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8" t="s">
+      <c r="K7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="Q7" s="8"/>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="R8" s="8"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="Q8" s="8"/>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="R9" s="8"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="Q9" s="8"/>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="R10" s="8"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="Q11" s="8"/>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R12" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J1:M1"/>
+  <mergeCells count="5">
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallAoe.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallAoe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B427B8-1790-44BC-A607-E462E55948A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D162C-C783-4376-98FA-5E6B245CA1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>##var</t>
   </si>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>relateForward</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>offSetInfo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -282,6 +278,18 @@
   </si>
   <si>
     <t>selectObjectUnitTypeBase</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否保持水平</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>keepHorizontal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>relateRotation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -799,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -817,11 +825,11 @@
     <col min="11" max="12" width="16.6640625" customWidth="1"/>
     <col min="13" max="13" width="16.88671875" customWidth="1"/>
     <col min="14" max="14" width="19.109375" customWidth="1"/>
-    <col min="15" max="17" width="13.77734375" customWidth="1"/>
-    <col min="18" max="18" width="19.109375" customWidth="1"/>
+    <col min="15" max="18" width="13.77734375" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -837,30 +845,30 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
       <c r="N1" s="20"/>
       <c r="O1" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P1" s="13"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="T1"/>
       <c r="U1"/>
       <c r="V1"/>
@@ -872,8 +880,9 @@
       <c r="AB1"/>
       <c r="AC1"/>
       <c r="AD1"/>
+      <c r="AE1"/>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -886,17 +895,17 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>16</v>
@@ -905,10 +914,12 @@
         <v>17</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="9"/>
-      <c r="S2"/>
+        <v>52</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="9"/>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
@@ -920,8 +931,9 @@
       <c r="AB2"/>
       <c r="AC2"/>
       <c r="AD2"/>
+      <c r="AE2"/>
     </row>
-    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -935,18 +947,18 @@
       <c r="I3" s="3"/>
       <c r="J3" s="9"/>
       <c r="K3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="9"/>
-      <c r="S3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="9"/>
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
@@ -958,8 +970,9 @@
       <c r="AB3"/>
       <c r="AC3"/>
       <c r="AD3"/>
+      <c r="AE3"/>
     </row>
-    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -975,30 +988,30 @@
         <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="17"/>
       <c r="O4" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P4" s="16"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
@@ -1010,8 +1023,9 @@
       <c r="AB4"/>
       <c r="AC4"/>
       <c r="AD4"/>
+      <c r="AE4"/>
     </row>
-    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1034,7 +1048,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5"/>
+      <c r="S5" s="4"/>
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
@@ -1046,8 +1060,9 @@
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
+      <c r="AE5"/>
     </row>
-    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1063,40 +1078,42 @@
         <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="O6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="R6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6"/>
+        <v>50</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
@@ -1108,10 +1125,11 @@
       <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
+      <c r="AE6"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1121,11 +1139,11 @@
         <v>CallAoe_1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8">
@@ -1135,47 +1153,48 @@
         <v>-1</v>
       </c>
       <c r="K7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="8" t="s">
-        <v>44</v>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="R12" s="8"/>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O4:R4"/>
     <mergeCell ref="J4:N4"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="K2:L2"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallAoe.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallAoe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D162C-C783-4376-98FA-5E6B245CA1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12839A62-D5CE-4C58-A615-337A63B9CC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,22 +213,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>actionCondition1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actionCondition2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件1(cond11&amp;cond12|cond21&amp;cond22)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件2(cond11&amp;cond12|cond21&amp;cond22)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>radius</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -290,6 +274,22 @@
   </si>
   <si>
     <t>relateRotation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>filterCondition1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>filterCondition2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选条件1(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选条件2(cond11&amp;cond12|cond21&amp;cond22)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -810,7 +810,7 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -854,7 +854,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
@@ -867,7 +867,7 @@
       <c r="Q1" s="13"/>
       <c r="R1" s="14"/>
       <c r="S1" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T1"/>
       <c r="U1"/>
@@ -895,17 +895,17 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="9" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>16</v>
@@ -914,10 +914,10 @@
         <v>17</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="S2" s="9"/>
       <c r="T2"/>
@@ -947,10 +947,10 @@
       <c r="I3" s="3"/>
       <c r="J3" s="9"/>
       <c r="K3" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
@@ -997,7 +997,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
@@ -1010,7 +1010,7 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="17"/>
       <c r="S4" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="T4"/>
       <c r="U4"/>
@@ -1087,17 +1087,17 @@
         <v>15</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>19</v>
@@ -1109,7 +1109,7 @@
         <v>21</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>29</v>
@@ -1153,17 +1153,17 @@
         <v>-1</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallAoe.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CallAoe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12839A62-D5CE-4C58-A615-337A63B9CC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A0B494-5963-4408-B070-92AE5762F7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -290,6 +290,14 @@
   </si>
   <si>
     <t>筛选条件2(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectObjectTeamFlagType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择阵营类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -807,29 +815,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.77734375" customWidth="1"/>
-    <col min="11" max="12" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" customWidth="1"/>
-    <col min="14" max="14" width="19.109375" customWidth="1"/>
-    <col min="15" max="18" width="13.77734375" customWidth="1"/>
-    <col min="19" max="19" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.75" customWidth="1"/>
+    <col min="12" max="13" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="15" max="15" width="19.125" customWidth="1"/>
+    <col min="16" max="19" width="13.75" customWidth="1"/>
+    <col min="20" max="20" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -859,17 +867,17 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="12" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="10" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="T1"/>
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
@@ -881,8 +889,9 @@
       <c r="AC1"/>
       <c r="AD1"/>
       <c r="AE1"/>
+      <c r="AF1"/>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -897,30 +906,32 @@
       <c r="J2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2"/>
+      <c r="T2" s="9"/>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
@@ -932,8 +943,9 @@
       <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2"/>
+      <c r="AF2"/>
     </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -946,20 +958,20 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="9"/>
+      <c r="L3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="3"/>
+      <c r="O3" s="9"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="9"/>
-      <c r="T3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="9"/>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
@@ -971,8 +983,9 @@
       <c r="AC3"/>
       <c r="AD3"/>
       <c r="AE3"/>
+      <c r="AF3"/>
     </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1002,17 +1015,17 @@
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="15" t="s">
+      <c r="N4" s="16"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="11" t="s">
+      <c r="R4" s="16"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
@@ -1024,8 +1037,9 @@
       <c r="AC4"/>
       <c r="AD4"/>
       <c r="AE4"/>
+      <c r="AF4"/>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1063,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-      <c r="T5"/>
+      <c r="T5" s="4"/>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
@@ -1061,8 +1075,9 @@
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
+      <c r="AF5"/>
     </row>
-    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1090,31 +1105,33 @@
         <v>34</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -1126,8 +1143,9 @@
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
+      <c r="AF6"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1152,55 +1170,57 @@
       <c r="J7" s="8">
         <v>-1</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="8"/>
+      <c r="T7" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M8" s="6"/>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="N8" s="6"/>
-      <c r="S8" s="8"/>
+      <c r="O8" s="6"/>
+      <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M9" s="6"/>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="N9" s="6"/>
-      <c r="S9" s="8"/>
+      <c r="O9" s="6"/>
+      <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="M10" s="6"/>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="N10" s="6"/>
-      <c r="S10" s="8"/>
+      <c r="O10" s="6"/>
+      <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="S12" s="8"/>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="T12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>